--- a/Mathematics challenge system/server/target/questions.xlsx
+++ b/Mathematics challenge system/server/target/questions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\recesspr1\mathematics-challenge-system\server\target\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AGAPTUS\G-11\Mathematics challenge system\server\target\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E228067-DA94-45EC-A409-706B20F65106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA2E356-2FDD-411E-A2DD-718C6F87AAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Question</t>
   </si>
@@ -139,6 +139,33 @@
   </si>
   <si>
     <t>What is 9×119 \times 119×11?</t>
+  </si>
+  <si>
+    <t>2+2</t>
+  </si>
+  <si>
+    <t>3*3</t>
+  </si>
+  <si>
+    <t>2*3</t>
+  </si>
+  <si>
+    <t>5*5</t>
+  </si>
+  <si>
+    <t>7*7</t>
+  </si>
+  <si>
+    <t>1+1</t>
+  </si>
+  <si>
+    <t>2+4</t>
+  </si>
+  <si>
+    <t>3*6</t>
+  </si>
+  <si>
+    <t>2*7</t>
   </si>
 </sst>
 </file>
@@ -470,9 +497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -501,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -512,7 +541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -523,7 +552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -567,7 +596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -589,7 +618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -600,7 +629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -611,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -655,7 +684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -666,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -699,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -710,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -754,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -776,7 +805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -787,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -798,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -809,7 +838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="57" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
@@ -817,6 +846,105 @@
         <v>99</v>
       </c>
       <c r="C31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="2">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B34" s="2">
+        <v>6</v>
+      </c>
+      <c r="C34" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" s="2">
+        <v>25</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="2">
+        <v>49</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2">
+        <v>14</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="2">
+        <v>18</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="2">
+        <v>6</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
         <v>1</v>
       </c>
     </row>
